--- a/JVM/3.虚拟机执行子系统.xlsx
+++ b/JVM/3.虚拟机执行子系统.xlsx
@@ -1,43 +1,525 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="20490" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Class类文件结构" sheetId="1" r:id="rId1"/>
+    <sheet name="虚拟机类加载机制" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t>魔数与Class文件的版本</t>
+  </si>
+  <si>
+    <t>每个Class文件的头4个字节称之为魔术，它唯一作用是确定这个文件是否为一个能被虚拟机接受的Class文件</t>
+  </si>
+  <si>
+    <t>紧接着魔数的4个字节存储的是Class文件的版本号</t>
+  </si>
+  <si>
+    <t>常量池</t>
+  </si>
+  <si>
+    <t>紧接着主次版本号之后的是常量池入口，常量池可以理解为Class文件中的资源仓库</t>
+  </si>
+  <si>
+    <t>它是Class文件结构中与其他项目关联最多的数据类型，也是占用Class文件空间最大的数据项目</t>
+  </si>
+  <si>
+    <t>常量池包含量大常量：</t>
+  </si>
+  <si>
+    <t>1 字面量</t>
+  </si>
+  <si>
+    <t>常量的值，如字符串等</t>
+  </si>
+  <si>
+    <t>2 符号引用，包含三类常量</t>
+  </si>
+  <si>
+    <t>类和接口的权限名称</t>
+  </si>
+  <si>
+    <t>字段和名词的描述</t>
+  </si>
+  <si>
+    <t>方法的名词和描述符</t>
+  </si>
+  <si>
+    <t>访问标记</t>
+  </si>
+  <si>
+    <t>在常量池后，紧跟着两个字节代表访问标志access_flags</t>
+  </si>
+  <si>
+    <t>用来识别是接口还是类，是否定位public，是否定义为abstarct，如果是类的话是否声明为final</t>
+  </si>
+  <si>
+    <t>类加载的生命周期</t>
+  </si>
+  <si>
+    <t>加载，验证，准备，解析，初始化，使用，卸载</t>
+  </si>
+  <si>
+    <t>类初始化的场景</t>
+  </si>
+  <si>
+    <t>1 遇到new,getstatic,putstatic,invokestatic这4条字节码指令的时候</t>
+  </si>
+  <si>
+    <t>2 使用java.lang.reflect包的方法对类进行反射调用的时候，如果类没有进行过初始化则需要先触发其初始化</t>
+  </si>
+  <si>
+    <t>3 当初始化一个类的时候，如果发现其父类还没有进行过初始化，需要先触发父类的初始化</t>
+  </si>
+  <si>
+    <t>4 当虚拟机启动时，用户需要制定一个要执行的主类（main）虚拟机会先初始化这个主类</t>
+  </si>
+  <si>
+    <t>5 如果一个java.lang.invoke.methodhandle引用对象没有初始化，则需要先触发初始化</t>
+  </si>
+  <si>
+    <t>初始化的注意点</t>
+  </si>
+  <si>
+    <t>对于静态字段，只有直接定义这个字段的类才会被初始化，</t>
+  </si>
+  <si>
+    <t>因此通过其子类来引用父类中定义的静态字段，只会触发父类的初始化而不会触发子类的初始化</t>
+  </si>
+  <si>
+    <t>在编译阶段通过常量传播优化，已经HELLOWORLD存储到了NotInitalization类的常量池中</t>
+  </si>
+  <si>
+    <t>以后NotInitalization对常量ConstClass的引用被转化为NotInitalization类对自身常量池的引用</t>
+  </si>
+  <si>
+    <t>NotInitalization类和ConstClass类没有任何联系</t>
+  </si>
+  <si>
+    <t>类加载的过程</t>
+  </si>
+  <si>
+    <t>加载，验证，准备，解析，初始化</t>
+  </si>
+  <si>
+    <t>加载</t>
+  </si>
+  <si>
+    <t>在加载阶段虚拟机完成三件事情</t>
+  </si>
+  <si>
+    <t>1 通过一个类的全限定名来获取定义类的二进制字节流</t>
+  </si>
+  <si>
+    <t>2 将这个字节流所代表的静态存储结构转化为方法区的运行时数据结构</t>
+  </si>
+  <si>
+    <t>3 在内存中生成一个代表这个类的java.lang.class对象，作为方法区这个类的各种数据的访问入口</t>
+  </si>
+  <si>
+    <t>验证</t>
+  </si>
+  <si>
+    <t>确保class文件的字节流中包含的信息符合当前虚拟机的要求</t>
+  </si>
+  <si>
+    <t>1 文件格式验证：是否以魔数开头，主次版本号在当前虚拟机处理范围之内，常量池中是否有不支持的常量类型</t>
+  </si>
+  <si>
+    <t>2 元数据验证：是否有父类，是否继承了不允许被继承的final类，如果是接口是否实现了所有方法等</t>
+  </si>
+  <si>
+    <t>3 字节码验证</t>
+  </si>
+  <si>
+    <t>4 符号引用验证</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>1 static修饰的变量进行内存分配，不包括实例变量,实例变量将会在对象实例化时随着对象一起分配在JAVA堆中</t>
+  </si>
+  <si>
+    <t>2 public static int value=123,在准备阶段value=0,因为这个时候还没开始执行任何java方法，value赋值123的putstatic指令是程序被编译后在初始化阶段才会执行</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,24 +527,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -111,7 +879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -146,7 +914,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -320,23 +1088,260 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JVM/3.虚拟机执行子系统.xlsx
+++ b/JVM/3.虚拟机执行子系统.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Class类文件结构" sheetId="1" r:id="rId1"/>
     <sheet name="虚拟机类加载机制" sheetId="2" r:id="rId2"/>
+    <sheet name="类加载器" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>魔数与Class文件的版本</t>
   </si>
@@ -153,6 +154,75 @@
   </si>
   <si>
     <t>2 public static int value=123,在准备阶段value=0,因为这个时候还没开始执行任何java方法，value赋值123的putstatic指令是程序被编译后在初始化阶段才会执行</t>
+  </si>
+  <si>
+    <t>解析</t>
+  </si>
+  <si>
+    <t>类或接口的解析</t>
+  </si>
+  <si>
+    <t>字段解析</t>
+  </si>
+  <si>
+    <t>类方法解析</t>
+  </si>
+  <si>
+    <t>接口方法解析</t>
+  </si>
+  <si>
+    <t>初始化</t>
+  </si>
+  <si>
+    <t>类加载的最后一步，执行类构造器&lt;client&gt;()方法的过程</t>
+  </si>
+  <si>
+    <t>类加载器</t>
+  </si>
+  <si>
+    <t>通过一个类的全限定名来获取描述此类的二进制字节流</t>
+  </si>
+  <si>
+    <t>，这个动作放到Java虚拟机外部去实现，以便让应用程序自己决定如何去获取所需要的类，</t>
+  </si>
+  <si>
+    <t>实现这个动作的代码块叫类加载器</t>
+  </si>
+  <si>
+    <t>双亲委托模型</t>
+  </si>
+  <si>
+    <t>启动类加载器，负责将存放&lt;JAVA_HOME&gt;\lib目录中的jar包</t>
+  </si>
+  <si>
+    <t>扩展类加载器，负责将存放&lt;JAVA_HOME&gt;\lib\ext目录中的jar包</t>
+  </si>
+  <si>
+    <t>应用程序类加载器，负责加载用户类路径ClassPath上的所指定的类库</t>
+  </si>
+  <si>
+    <t>双亲委托的工作过程</t>
+  </si>
+  <si>
+    <t>如果一个加载器收到了类加载的请求，它首先不会自己去尝试加载这个类</t>
+  </si>
+  <si>
+    <t>而是把这个请求委托给父类加载器去完成，每一个层次的类加载器都是如此，</t>
+  </si>
+  <si>
+    <t>因此所有的加载请求最终都应该传送到顶层的启动类加载器中</t>
+  </si>
+  <si>
+    <t>只有当附加在其反馈自己无法加载这个请求的时候，子加载器才会尝试自己去加载</t>
+  </si>
+  <si>
+    <t>优点</t>
+  </si>
+  <si>
+    <t>例如java.lang.Object它存放在rt.jar中，无论哪个类加载器要加载这个类，最终都是委托给处于模型最顶端的启动类加载器进行加载</t>
+  </si>
+  <si>
+    <t>因此Object类在程序的各种类加载器环境中都是同一个类</t>
   </si>
 </sst>
 </file>
@@ -165,7 +235,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,9 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,13 +255,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +305,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,53 +342,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,51 +387,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -334,67 +397,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,115 +559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,39 +588,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,17 +606,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,166 +660,179 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,10 +1251,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1340,6 +1403,132 @@
         <v>45</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/JVM/3.虚拟机执行子系统.xlsx
+++ b/JVM/3.虚拟机执行子系统.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\JVM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A304A29-C727-4C43-B575-F0541ED746DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class类文件结构" sheetId="1" r:id="rId1"/>
     <sheet name="虚拟机类加载机制" sheetId="2" r:id="rId2"/>
     <sheet name="类加载器" sheetId="3" r:id="rId3"/>
+    <sheet name="栈帧" sheetId="4" r:id="rId4"/>
+    <sheet name="局部变量表" sheetId="5" r:id="rId5"/>
+    <sheet name="操作数栈" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>魔数与Class文件的版本</t>
   </si>
@@ -223,19 +232,85 @@
   </si>
   <si>
     <t>因此Object类在程序的各种类加载器环境中都是同一个类</t>
+  </si>
+  <si>
+    <t>栈帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是用于支持虚拟机进行方法调用和方法执行的数据结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它是虚拟机运行时数据区中的虚拟机栈的栈元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈帧存储了方法的局部变量表，操作数栈，动态连接，方法返回地址等信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个方法从调用开始至执行完成的过程，都对应着一个栈帧在虚拟机栈里面从入栈到出栈的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈帧局部变量表的大小，操作数栈的深度控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈帧中需要多大的局部变量表，多深的操作数栈都已经完全确定了，并且写入到方法表的code属性中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此一个栈帧需要分配多少内存，不会受到程序运行期变量数据的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量表是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>局部变量表的容量以变量槽为单位(variable slot)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个Slot都应该能存放一个boolean,byte,char,short,int,float,reference,returnAddress类型的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用做到以下两点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2，此引用中直接或间接的查找到对象所属的数据类型在方法去中的存储的类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，从此引用中直接或间接地查找到对象在JAVA堆中的数据存放的起始地址索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一个后入先出栈，每一个元素都是任意的java数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,345 +319,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -590,310 +341,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1151,39 +616,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1191,17 +656,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1209,27 +674,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1237,109 +702,108 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1347,22 +811,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1370,27 +834,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1398,12 +862,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -1411,22 +875,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1435,23 +899,22 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1459,78 +922,216 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE40A58-BD9D-4E6A-B696-D6BF79E083EC}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90851BDC-2FFF-416A-8DBA-C0ADAAEDC9FD}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2536FDE0-9644-4460-A02B-E249193C243D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JVM/3.虚拟机执行子系统.xlsx
+++ b/JVM/3.虚拟机执行子系统.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\JVM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A304A29-C727-4C43-B575-F0541ED746DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27045713-C788-4F34-884B-F9A51C2C14D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="420" windowWidth="25440" windowHeight="15540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class类文件结构" sheetId="1" r:id="rId1"/>
     <sheet name="虚拟机类加载机制" sheetId="2" r:id="rId2"/>
     <sheet name="类加载器" sheetId="3" r:id="rId3"/>
     <sheet name="栈帧" sheetId="4" r:id="rId4"/>
-    <sheet name="局部变量表" sheetId="5" r:id="rId5"/>
-    <sheet name="操作数栈" sheetId="6" r:id="rId6"/>
+    <sheet name="方法调用" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="117">
   <si>
     <t>魔数与Class文件的版本</t>
   </si>
@@ -302,8 +302,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是一个后入先出栈，每一个元素都是任意的java数据类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>是一个后入先出栈</t>
+  </si>
+  <si>
+    <t>每一个元素可以是任意的Java数据类型</t>
+  </si>
+  <si>
+    <t>操作数栈工作流程举例</t>
+  </si>
+  <si>
+    <t>整数加法的字节码指令iadd在运行的时候操作数栈中最接近栈顶的两个元素已经存入了两个int型数值</t>
+  </si>
+  <si>
+    <t>当执行这个指令时，会将这两个int值出栈并相加，然后将相加的结果入栈</t>
+  </si>
+  <si>
+    <t>动态链接</t>
+  </si>
+  <si>
+    <t>每个栈帧都包含一个只想运行时常量池中该栈帧所属方法的引用</t>
+  </si>
+  <si>
+    <t>持有这个引用是为了支持方法调用过程中的动态链接</t>
+  </si>
+  <si>
+    <t>class文件的常量池中存有大量的符号引用，字节码中的方法调用指令就以常量池中指向方法的符号引用作为参数</t>
+  </si>
+  <si>
+    <t>引用一部分会在类加载阶段或者第一次使用的时候就转化为直接引用，这种引用成为静态引用</t>
+  </si>
+  <si>
+    <t>另一部分将在每一次运行期间转化为直接引用，这部分成为动态链接</t>
+  </si>
+  <si>
+    <t>方法返回地址</t>
+  </si>
+  <si>
+    <t>当一个方法开始执行后，只有两种方式可以退出这个方法</t>
+  </si>
+  <si>
+    <t>1，执行引擎遇到任意一个方法返回的字节码指令</t>
+  </si>
+  <si>
+    <t>2，方法执行过程中异常退出</t>
+  </si>
+  <si>
+    <t>无论采用何种退出方式，在方法退出之后，都需要返回到方法被调用的位置，程序才能继续执行，</t>
+  </si>
+  <si>
+    <t>方法返回时可能需要在栈帧中保存一些信息，用来帮助恢复它的上层方法的执行状态。</t>
+  </si>
+  <si>
+    <t>正常退出时，调用者的PC计数器的值可以作为返回地址，栈帧中会保存这个计数器的值</t>
+  </si>
+  <si>
+    <t>异常退出时，返回地址是要通过异常处理器表来确定，栈帧不会保存这部分信息</t>
+  </si>
+  <si>
+    <t>方法退出的过程</t>
+  </si>
+  <si>
+    <t>方法退出的过程实际上就等于把当前栈帧出栈，</t>
+  </si>
+  <si>
+    <t>恢复上层方法的局部变量表和操作数栈</t>
+  </si>
+  <si>
+    <t>把返回值压入调用者栈帧的操作数栈中，</t>
+  </si>
+  <si>
+    <t>调整PC计数器的值以指向方法调用指令后面的一条指令</t>
+  </si>
+  <si>
+    <t>方法调用</t>
+  </si>
+  <si>
+    <t>唯一的任务就是确定被调用方法的版本，不涉及方法内部的具体运行过程</t>
+  </si>
+  <si>
+    <t>调用目标在程序代码写好，编译器进行编译时就必须确定下来，这类方法的调用称为解析</t>
+  </si>
+  <si>
+    <t>解析调用一定是个静态的过程，在编译期间就完成确定，</t>
+  </si>
+  <si>
+    <t>在类装载的解析阶段就会把涉及的符号引用完全转变为可确定的直接引用，不会延迟到运行期再去加载</t>
+  </si>
+  <si>
+    <t>分派</t>
+  </si>
+  <si>
+    <t>静态分派，动态分派，单分派，多分派</t>
   </si>
 </sst>
 </file>
@@ -345,8 +434,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1000,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE40A58-BD9D-4E6A-B696-D6BF79E083EC}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A23" sqref="A23:N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1047,6 +1139,608 @@
       <c r="B9" t="s">
         <v>76</v>
       </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1056,52 +1750,53 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90851BDC-2FFF-416A-8DBA-C0ADAAEDC9FD}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>77</v>
+      <c r="A1" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>79</v>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>80</v>
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>81</v>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>83</v>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1111,26 +1806,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2536FDE0-9644-4460-A02B-E249193C243D}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B535181-75D0-446D-B1D0-38C1952EAC40}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JVM/3.虚拟机执行子系统.xlsx
+++ b/JVM/3.虚拟机执行子系统.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JavaMS\JVM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27045713-C788-4F34-884B-F9A51C2C14D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Class类文件结构" sheetId="1" r:id="rId1"/>
@@ -235,71 +229,54 @@
   </si>
   <si>
     <t>栈帧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是用于支持虚拟机进行方法调用和方法执行的数据结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>它是虚拟机运行时数据区中的虚拟机栈的栈元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栈帧存储了方法的局部变量表，操作数栈，动态连接，方法返回地址等信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每一个方法从调用开始至执行完成的过程，都对应着一个栈帧在虚拟机栈里面从入栈到出栈的过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栈帧局部变量表的大小，操作数栈的深度控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栈帧中需要多大的局部变量表，多深的操作数栈都已经完全确定了，并且写入到方法表的code属性中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>因此一个栈帧需要分配多少内存，不会受到程序运行期变量数据的影响。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>局部变量表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>局部变量表是一组变量值存储空间，用于存放方法参数和方法内部定义的局部变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>局部变量表的容量以变量槽为单位(variable slot)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每个Slot都应该能存放一个boolean,byte,char,short,int,float,reference,returnAddress类型的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>引用做到以下两点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，从此引用中直接或间接地查找到对象在JAVA堆中的数据存放的起始地址索引</t>
   </si>
   <si>
     <t>2，此引用中直接或间接的查找到对象所属的数据类型在方法去中的存储的类型信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1，从此引用中直接或间接地查找到对象在JAVA堆中的数据存放的起始地址索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作数栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是一个后入先出栈</t>
@@ -398,8 +375,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,21 +391,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -430,9 +737,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -440,17 +989,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,39 +1301,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -748,17 +1341,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -766,27 +1359,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:3">
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:3">
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -794,108 +1387,109 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -903,22 +1497,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -926,27 +1520,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -954,12 +1548,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -967,22 +1561,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2">
       <c r="B37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -991,22 +1585,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -1014,173 +1609,174 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:2">
       <c r="B12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE40A58-BD9D-4E6A-B696-D6BF79E083EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:N54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
@@ -1198,7 +1794,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>86</v>
@@ -1216,7 +1812,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>87</v>
@@ -1234,7 +1830,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1250,7 +1846,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
@@ -1268,7 +1864,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>89</v>
@@ -1286,7 +1882,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>90</v>
@@ -1304,7 +1900,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1320,7 +1916,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>91</v>
       </c>
@@ -1338,7 +1934,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>92</v>
@@ -1356,7 +1952,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>93</v>
@@ -1374,7 +1970,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>94</v>
@@ -1392,7 +1988,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>95</v>
@@ -1410,7 +2006,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>96</v>
@@ -1428,7 +2024,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1444,7 +2040,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -1462,7 +2058,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>98</v>
@@ -1480,7 +2076,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>99</v>
@@ -1498,7 +2094,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>100</v>
@@ -1516,7 +2112,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>101</v>
@@ -1534,7 +2130,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>102</v>
@@ -1552,7 +2148,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>103</v>
@@ -1570,7 +2166,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>104</v>
@@ -1588,7 +2184,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1604,7 +2200,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
@@ -1622,7 +2218,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>106</v>
@@ -1640,7 +2236,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
         <v>107</v>
@@ -1658,7 +2254,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
         <v>108</v>
@@ -1676,7 +2272,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>109</v>
@@ -1694,7 +2290,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1710,7 +2306,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1726,7 +2322,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1743,55 +2339,56 @@
       <c r="N54" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90851BDC-2FFF-416A-8DBA-C0ADAAEDC9FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>115</v>
       </c>
@@ -1800,22 +2397,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B535181-75D0-446D-B1D0-38C1952EAC40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/JVM/3.虚拟机执行子系统.xlsx
+++ b/JVM/3.虚拟机执行子系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7935" activeTab="4"/>
+    <workbookView windowWidth="25200" windowHeight="12165" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Class类文件结构" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <t>因此所有的加载请求最终都应该传送到顶层的启动类加载器中</t>
   </si>
   <si>
-    <t>只有当附加在其反馈自己无法加载这个请求的时候，子加载器才会尝试自己去加载</t>
+    <t>只有当父加载器反馈自己无法加载这个请求的时候，子加载器才会尝试自己去加载</t>
   </si>
   <si>
     <t>优点</t>
@@ -264,7 +264,7 @@
     <t>每个Slot都应该能存放一个boolean,byte,char,short,int,float,reference,returnAddress类型的数据</t>
   </si>
   <si>
-    <t>reference</t>
+    <t>局部变量表中的reference</t>
   </si>
   <si>
     <t>引用做到以下两点</t>
@@ -273,7 +273,7 @@
     <t>1，从此引用中直接或间接地查找到对象在JAVA堆中的数据存放的起始地址索引</t>
   </si>
   <si>
-    <t>2，此引用中直接或间接的查找到对象所属的数据类型在方法去中的存储的类型信息</t>
+    <t>2，此引用中直接或间接的查找到对象所属的数据类型在方法区中的存储的类型信息</t>
   </si>
   <si>
     <t>操作数栈</t>
@@ -297,7 +297,7 @@
     <t>动态链接</t>
   </si>
   <si>
-    <t>每个栈帧都包含一个只想运行时常量池中该栈帧所属方法的引用</t>
+    <t>每个栈帧都包含一个指向运行时常量池中该栈帧所属方法的引用</t>
   </si>
   <si>
     <t>持有这个引用是为了支持方法调用过程中的动态链接</t>
@@ -354,7 +354,7 @@
     <t>方法调用</t>
   </si>
   <si>
-    <t>唯一的任务就是确定被调用方法的版本，不涉及方法内部的具体运行过程</t>
+    <t>方法调用不同于方法执行，方法调用的唯一的任务就是确定被调用方法的版本，不涉及方法内部的具体运行过程</t>
   </si>
   <si>
     <t>调用目标在程序代码写好，编译器进行编译时就必须确定下来，这类方法的调用称为解析</t>
@@ -377,15 +377,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,6 +416,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,62 +467,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,16 +497,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,25 +512,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,187 +544,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +735,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -749,63 +758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,151 +787,199 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,6 +1047,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3409950"/>
+          <a:ext cx="2657475" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1310,7 +1357,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1403,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1596,7 +1643,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1682,6 +1729,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1690,8 +1738,8 @@
   <sheetPr/>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2350,7 +2398,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>

--- a/JVM/3.虚拟机执行子系统.xlsx
+++ b/JVM/3.虚拟机执行子系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12165" activeTab="4"/>
+    <workbookView windowWidth="25200" windowHeight="12165" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Class类文件结构" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
     <t>操作数栈</t>
   </si>
   <si>
-    <t>是一个后入先出栈</t>
+    <t>操作数栈可理解为java虚拟机栈中的一个用于计算的临时数据存储区，后入先出栈的规则</t>
   </si>
   <si>
     <t>每一个元素可以是任意的Java数据类型</t>
@@ -377,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -392,38 +392,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +415,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -446,7 +431,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,40 +452,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,10 +466,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,6 +496,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -544,19 +544,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,163 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,11 +738,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,41 +783,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -835,151 +806,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1450,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1738,8 +1738,8 @@
   <sheetPr/>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2397,7 +2397,7 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
